--- a/STAT-SARS-CoV2-nPT-19.05.2020.xlsx
+++ b/STAT-SARS-CoV2-nPT-19.05.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edlindemann/Documents/--- Erik Eriksen ---/-- Research --/COVID 19/GITHUB/RPT_COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA128473-A7EC-BE4C-9357-E477F084608B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C704FC4-19F2-D543-A1DC-CF8888AD8C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="28800" windowHeight="16720" activeTab="3" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="28800" windowHeight="16720" activeTab="6" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="EKL &amp; VOST" sheetId="44" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <sheet name="BEAR PT - EKL" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="EPIFORECASTS - Rt" sheetId="30" r:id="rId6"/>
     <sheet name="INSA" sheetId="41" r:id="rId7"/>
-    <sheet name="cmp" sheetId="46" r:id="rId8"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">cmp!$H$15:$H$22</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">cmp!$J$15:$J$22</definedName>
     <definedName name="delta_infected">'[1]SIR Simple'!$H$4</definedName>
     <definedName name="delta_time">'[2]SIR Model'!$H$5</definedName>
     <definedName name="Infected">'[1]SIR Simple'!$H$3</definedName>
@@ -152,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8320" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="889">
   <si>
     <t>NORTE</t>
   </si>
@@ -31857,7 +31854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BDB3FA-561D-044D-8C3D-CE6127D86C02}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="CG7" sqref="CG7:CP11"/>
     </sheetView>
   </sheetViews>
@@ -37653,7 +37650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB4596A-7CAD-604B-9701-53DCC55353EC}">
   <dimension ref="A1:AA441"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -73967,3571 +73964,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC25D41C-165F-134D-A36E-712CD0770546}">
-  <dimension ref="A1:U86"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="25">
-        <f>H2-7</f>
-        <v>43877</v>
-      </c>
-      <c r="B2" s="25">
-        <v>43879</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
-        <v>2</v>
-      </c>
-      <c r="F2" s="27">
-        <v>8</v>
-      </c>
-      <c r="G2" s="27">
-        <v>6</v>
-      </c>
-      <c r="H2" s="25">
-        <v>43884</v>
-      </c>
-      <c r="I2">
-        <v>1.3914529914529901</v>
-      </c>
-      <c r="J2">
-        <v>2.2179487179487101</v>
-      </c>
-      <c r="K2">
-        <v>3.24615384615384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="25">
-        <f t="shared" ref="A3:A66" si="0">H3-7</f>
-        <v>43878</v>
-      </c>
-      <c r="B3" s="25">
-        <v>43880</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="27">
-        <v>2</v>
-      </c>
-      <c r="E3" s="27">
-        <v>3</v>
-      </c>
-      <c r="F3" s="27">
-        <v>9</v>
-      </c>
-      <c r="G3" s="27">
-        <v>7</v>
-      </c>
-      <c r="H3" s="25">
-        <v>43885</v>
-      </c>
-      <c r="I3">
-        <v>1.2170940170940101</v>
-      </c>
-      <c r="J3">
-        <v>1.8957264957264901</v>
-      </c>
-      <c r="K3">
-        <v>2.72991452991453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="25">
-        <f t="shared" si="0"/>
-        <v>43879</v>
-      </c>
-      <c r="B4" s="25">
-        <v>43881</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="27">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27">
-        <v>4</v>
-      </c>
-      <c r="F4" s="27">
-        <v>10</v>
-      </c>
-      <c r="G4" s="27">
-        <v>8</v>
-      </c>
-      <c r="H4" s="25">
-        <v>43886</v>
-      </c>
-      <c r="I4">
-        <v>1.35213675213675</v>
-      </c>
-      <c r="J4">
-        <v>1.99487179487179</v>
-      </c>
-      <c r="K4">
-        <v>2.72478632478632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="25">
-        <f t="shared" si="0"/>
-        <v>43880</v>
-      </c>
-      <c r="B5" s="25">
-        <v>43882</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="27">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27">
-        <v>5</v>
-      </c>
-      <c r="F5" s="27">
-        <v>11</v>
-      </c>
-      <c r="G5" s="27">
-        <v>9</v>
-      </c>
-      <c r="H5" s="25">
-        <v>43887</v>
-      </c>
-      <c r="I5">
-        <v>2.3367521367521298</v>
-      </c>
-      <c r="J5">
-        <v>1.6905982905982899</v>
-      </c>
-      <c r="K5">
-        <v>3.0512820512820502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="25">
-        <f t="shared" si="0"/>
-        <v>43881</v>
-      </c>
-      <c r="B6" s="25">
-        <v>43883</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="27">
-        <v>5</v>
-      </c>
-      <c r="E6" s="27">
-        <v>6</v>
-      </c>
-      <c r="F6" s="27">
-        <v>12</v>
-      </c>
-      <c r="G6" s="27">
-        <v>10</v>
-      </c>
-      <c r="H6" s="25">
-        <v>43888</v>
-      </c>
-      <c r="I6">
-        <v>2.01452991452991</v>
-      </c>
-      <c r="J6">
-        <v>1.5282051282051199</v>
-      </c>
-      <c r="K6">
-        <v>2.5692307692307699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="25">
-        <f t="shared" si="0"/>
-        <v>43882</v>
-      </c>
-      <c r="B7" s="25">
-        <v>43884</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="27">
-        <v>6</v>
-      </c>
-      <c r="E7" s="27">
-        <v>7</v>
-      </c>
-      <c r="F7" s="27">
-        <v>13</v>
-      </c>
-      <c r="G7" s="27">
-        <v>11</v>
-      </c>
-      <c r="H7" s="25">
-        <v>43889</v>
-      </c>
-      <c r="I7">
-        <v>1.9512820512820499</v>
-      </c>
-      <c r="J7">
-        <v>1.52991452991453</v>
-      </c>
-      <c r="K7">
-        <v>2.41880341880342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="25">
-        <f t="shared" si="0"/>
-        <v>43883</v>
-      </c>
-      <c r="B8" s="25">
-        <v>43885</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="27">
-        <v>7</v>
-      </c>
-      <c r="E8" s="27">
-        <v>8</v>
-      </c>
-      <c r="F8" s="27">
-        <v>14</v>
-      </c>
-      <c r="G8" s="27">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25">
-        <v>43890</v>
-      </c>
-      <c r="I8">
-        <v>1.4102564102564099</v>
-      </c>
-      <c r="J8">
-        <v>1.7743589743589701</v>
-      </c>
-      <c r="K8">
-        <v>2.18461538461538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="25">
-        <f t="shared" si="0"/>
-        <v>43884</v>
-      </c>
-      <c r="B9" s="25">
-        <v>43886</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="27">
-        <v>8</v>
-      </c>
-      <c r="E9" s="27">
-        <v>9</v>
-      </c>
-      <c r="F9" s="27">
-        <v>15</v>
-      </c>
-      <c r="G9" s="27">
-        <v>13</v>
-      </c>
-      <c r="H9" s="25">
-        <v>43891</v>
-      </c>
-      <c r="I9">
-        <v>1.5948717948717901</v>
-      </c>
-      <c r="J9">
-        <v>1.9418803418803401</v>
-      </c>
-      <c r="K9">
-        <v>2.3299145299145301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="25">
-        <f t="shared" si="0"/>
-        <v>43885</v>
-      </c>
-      <c r="B10" s="25">
-        <v>43887</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="27">
-        <v>9</v>
-      </c>
-      <c r="E10" s="27">
-        <v>10</v>
-      </c>
-      <c r="F10" s="27">
-        <v>16</v>
-      </c>
-      <c r="G10" s="27">
-        <v>14</v>
-      </c>
-      <c r="H10" s="25">
-        <v>43892</v>
-      </c>
-      <c r="I10">
-        <v>1.6923076923076901</v>
-      </c>
-      <c r="J10">
-        <v>2.0008547008547</v>
-      </c>
-      <c r="K10">
-        <v>2.3390313390313402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="25">
-        <f t="shared" si="0"/>
-        <v>43886</v>
-      </c>
-      <c r="B11" s="25">
-        <v>43888</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="27">
-        <v>10</v>
-      </c>
-      <c r="E11" s="27">
-        <v>11</v>
-      </c>
-      <c r="F11" s="27">
-        <v>17</v>
-      </c>
-      <c r="G11" s="27">
-        <v>15</v>
-      </c>
-      <c r="H11" s="25">
-        <v>43893</v>
-      </c>
-      <c r="I11">
-        <v>1.55042735042735</v>
-      </c>
-      <c r="J11">
-        <v>1.8034188034187999</v>
-      </c>
-      <c r="K11">
-        <v>2.0786324786324699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="25">
-        <f t="shared" si="0"/>
-        <v>43887</v>
-      </c>
-      <c r="B12" s="25">
-        <v>43889</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="27">
-        <v>11</v>
-      </c>
-      <c r="E12" s="27">
-        <v>12</v>
-      </c>
-      <c r="F12" s="27">
-        <v>18</v>
-      </c>
-      <c r="G12" s="27">
-        <v>16</v>
-      </c>
-      <c r="H12" s="25">
-        <v>43894</v>
-      </c>
-      <c r="I12">
-        <v>1.44957264957265</v>
-      </c>
-      <c r="J12">
-        <v>1.65213675213675</v>
-      </c>
-      <c r="K12">
-        <v>1.87692307692307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="25">
-        <f t="shared" si="0"/>
-        <v>43888</v>
-      </c>
-      <c r="B13" s="25">
-        <v>43890</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="27">
-        <v>12</v>
-      </c>
-      <c r="E13" s="27">
-        <v>13</v>
-      </c>
-      <c r="F13" s="27">
-        <v>19</v>
-      </c>
-      <c r="G13" s="27">
-        <v>17</v>
-      </c>
-      <c r="H13" s="25">
-        <v>43895</v>
-      </c>
-      <c r="I13">
-        <v>1.38290598290598</v>
-      </c>
-      <c r="J13">
-        <v>1.58205128205128</v>
-      </c>
-      <c r="K13">
-        <v>1.7931623931623899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="25">
-        <f t="shared" si="0"/>
-        <v>43889</v>
-      </c>
-      <c r="B14" s="25">
-        <v>43891</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="27">
-        <v>13</v>
-      </c>
-      <c r="E14" s="27">
-        <v>14</v>
-      </c>
-      <c r="F14" s="27">
-        <v>20</v>
-      </c>
-      <c r="G14" s="27">
-        <v>18</v>
-      </c>
-      <c r="H14" s="25">
-        <v>43896</v>
-      </c>
-      <c r="I14">
-        <v>1.3282051282051199</v>
-      </c>
-      <c r="J14">
-        <v>1.5128205128205101</v>
-      </c>
-      <c r="K14">
-        <v>1.7076923076923001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="25">
-        <f t="shared" si="0"/>
-        <v>43890</v>
-      </c>
-      <c r="B15" s="25">
-        <v>43892</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="27">
-        <v>14</v>
-      </c>
-      <c r="E15" s="27">
-        <v>15</v>
-      </c>
-      <c r="F15" s="27">
-        <v>21</v>
-      </c>
-      <c r="G15" s="27">
-        <v>19</v>
-      </c>
-      <c r="H15" s="25">
-        <v>43897</v>
-      </c>
-      <c r="I15">
-        <v>1.5042735042735</v>
-      </c>
-      <c r="J15">
-        <v>1.6615384615384601</v>
-      </c>
-      <c r="K15">
-        <v>1.8606837606837601</v>
-      </c>
-      <c r="L15">
-        <v>4.8735889999999999</v>
-      </c>
-      <c r="M15">
-        <v>3.0542522999999999</v>
-      </c>
-      <c r="N15">
-        <v>7.1111712000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="25">
-        <f t="shared" si="0"/>
-        <v>43891</v>
-      </c>
-      <c r="B16" s="25">
-        <v>43893</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="27">
-        <v>15</v>
-      </c>
-      <c r="E16" s="27">
-        <v>16</v>
-      </c>
-      <c r="F16" s="27">
-        <v>22</v>
-      </c>
-      <c r="G16" s="27">
-        <v>20</v>
-      </c>
-      <c r="H16" s="25">
-        <v>43898</v>
-      </c>
-      <c r="I16">
-        <v>1.4470085470085401</v>
-      </c>
-      <c r="J16">
-        <v>1.6008547008547001</v>
-      </c>
-      <c r="K16">
-        <v>1.7675213675213599</v>
-      </c>
-      <c r="L16">
-        <v>4.4494895000000003</v>
-      </c>
-      <c r="M16">
-        <v>3.0232123</v>
-      </c>
-      <c r="N16">
-        <v>6.1470222000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="25">
-        <f t="shared" si="0"/>
-        <v>43892</v>
-      </c>
-      <c r="B17" s="25">
-        <v>43894</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17" s="27">
-        <v>16</v>
-      </c>
-      <c r="E17" s="27">
-        <v>17</v>
-      </c>
-      <c r="F17" s="27">
-        <v>23</v>
-      </c>
-      <c r="G17" s="27">
-        <v>21</v>
-      </c>
-      <c r="H17" s="25">
-        <v>43899</v>
-      </c>
-      <c r="I17">
-        <v>1.708547008547</v>
-      </c>
-      <c r="J17">
-        <v>1.5589743589743501</v>
-      </c>
-      <c r="K17">
-        <v>1.8709401709401701</v>
-      </c>
-      <c r="L17">
-        <v>3.5647872</v>
-      </c>
-      <c r="M17">
-        <v>2.5226556000000002</v>
-      </c>
-      <c r="N17">
-        <v>4.7842846000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="25">
-        <f t="shared" si="0"/>
-        <v>43893</v>
-      </c>
-      <c r="B18" s="25">
-        <v>43895</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18" s="27">
-        <v>17</v>
-      </c>
-      <c r="E18" s="27">
-        <v>18</v>
-      </c>
-      <c r="F18" s="27">
-        <v>24</v>
-      </c>
-      <c r="G18" s="27">
-        <v>22</v>
-      </c>
-      <c r="H18" s="25">
-        <v>43900</v>
-      </c>
-      <c r="I18">
-        <v>1.70940170940171</v>
-      </c>
-      <c r="J18">
-        <v>1.84786324786324</v>
-      </c>
-      <c r="K18">
-        <v>2.0008547008547</v>
-      </c>
-      <c r="L18">
-        <v>2.4471911</v>
-      </c>
-      <c r="M18">
-        <v>1.731778</v>
-      </c>
-      <c r="N18">
-        <v>3.2843638999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="25">
-        <f t="shared" si="0"/>
-        <v>43894</v>
-      </c>
-      <c r="B19" s="25">
-        <v>43896</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" s="27">
-        <v>18</v>
-      </c>
-      <c r="E19" s="27">
-        <v>19</v>
-      </c>
-      <c r="F19" s="27">
-        <v>25</v>
-      </c>
-      <c r="G19" s="27">
-        <v>23</v>
-      </c>
-      <c r="H19" s="25">
-        <v>43901</v>
-      </c>
-      <c r="I19">
-        <v>1.6717948717948701</v>
-      </c>
-      <c r="J19">
-        <v>1.8034188034187999</v>
-      </c>
-      <c r="K19">
-        <v>1.93846153846153</v>
-      </c>
-      <c r="L19">
-        <v>2.6051701</v>
-      </c>
-      <c r="M19">
-        <v>1.9570839</v>
-      </c>
-      <c r="N19">
-        <v>3.3445223999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="25">
-        <f t="shared" si="0"/>
-        <v>43895</v>
-      </c>
-      <c r="B20" s="25">
-        <v>43897</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20" s="27">
-        <v>19</v>
-      </c>
-      <c r="E20" s="27">
-        <v>20</v>
-      </c>
-      <c r="F20" s="27">
-        <v>26</v>
-      </c>
-      <c r="G20" s="27">
-        <v>24</v>
-      </c>
-      <c r="H20" s="25">
-        <v>43902</v>
-      </c>
-      <c r="I20">
-        <v>1.71965811965812</v>
-      </c>
-      <c r="J20">
-        <v>1.82222222222222</v>
-      </c>
-      <c r="K20">
-        <v>1.9350427350427299</v>
-      </c>
-      <c r="L20">
-        <v>2.6868400000000001</v>
-      </c>
-      <c r="M20">
-        <v>2.0945236</v>
-      </c>
-      <c r="N20">
-        <v>3.3517912999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="25">
-        <f t="shared" si="0"/>
-        <v>43896</v>
-      </c>
-      <c r="B21" s="25">
-        <v>43898</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" s="27">
-        <v>20</v>
-      </c>
-      <c r="E21" s="27">
-        <v>21</v>
-      </c>
-      <c r="F21" s="27">
-        <v>27</v>
-      </c>
-      <c r="G21" s="27">
-        <v>25</v>
-      </c>
-      <c r="H21" s="25">
-        <v>43903</v>
-      </c>
-      <c r="I21">
-        <v>1.7880341880341799</v>
-      </c>
-      <c r="J21">
-        <v>1.8752136752136701</v>
-      </c>
-      <c r="K21">
-        <v>1.9863247863247799</v>
-      </c>
-      <c r="L21">
-        <v>3.0085022000000001</v>
-      </c>
-      <c r="M21">
-        <v>2.4478374000000001</v>
-      </c>
-      <c r="N21">
-        <v>3.6261160000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="25">
-        <f t="shared" si="0"/>
-        <v>43897</v>
-      </c>
-      <c r="B22" s="25">
-        <v>43899</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" s="27">
-        <v>21</v>
-      </c>
-      <c r="E22" s="27">
-        <v>22</v>
-      </c>
-      <c r="F22" s="27">
-        <v>28</v>
-      </c>
-      <c r="G22" s="27">
-        <v>26</v>
-      </c>
-      <c r="H22" s="25">
-        <v>43904</v>
-      </c>
-      <c r="I22">
-        <v>1.74529914529914</v>
-      </c>
-      <c r="J22">
-        <v>1.83247863247863</v>
-      </c>
-      <c r="K22">
-        <v>1.9264957264957201</v>
-      </c>
-      <c r="L22">
-        <v>3.4410823000000001</v>
-      </c>
-      <c r="M22">
-        <v>2.9107481000000002</v>
-      </c>
-      <c r="N22">
-        <v>4.0151434000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="25">
-        <f t="shared" si="0"/>
-        <v>43898</v>
-      </c>
-      <c r="B23" s="25">
-        <v>43900</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="27">
-        <v>22</v>
-      </c>
-      <c r="E23" s="27">
-        <v>23</v>
-      </c>
-      <c r="F23" s="27">
-        <v>29</v>
-      </c>
-      <c r="G23" s="27">
-        <v>27</v>
-      </c>
-      <c r="H23" s="25">
-        <v>43905</v>
-      </c>
-      <c r="I23">
-        <v>1.7470085470085399</v>
-      </c>
-      <c r="J23">
-        <v>1.82735042735042</v>
-      </c>
-      <c r="K23">
-        <v>1.9111111111111101</v>
-      </c>
-      <c r="L23">
-        <v>3.6788731000000001</v>
-      </c>
-      <c r="M23">
-        <v>3.2045889000000001</v>
-      </c>
-      <c r="N23">
-        <v>4.1854098999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="25">
-        <f t="shared" si="0"/>
-        <v>43899</v>
-      </c>
-      <c r="B24" s="25">
-        <v>43901</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" s="27">
-        <v>23</v>
-      </c>
-      <c r="E24" s="27">
-        <v>24</v>
-      </c>
-      <c r="F24" s="27">
-        <v>30</v>
-      </c>
-      <c r="G24" s="27">
-        <v>28</v>
-      </c>
-      <c r="H24" s="25">
-        <v>43906</v>
-      </c>
-      <c r="I24">
-        <v>1.7008547008546999</v>
-      </c>
-      <c r="J24">
-        <v>1.7777777777777699</v>
-      </c>
-      <c r="K24">
-        <v>1.84102564102564</v>
-      </c>
-      <c r="L24">
-        <v>3.5506359999999999</v>
-      </c>
-      <c r="M24">
-        <v>3.1556765000000002</v>
-      </c>
-      <c r="N24">
-        <v>3.9685453000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="25">
-        <f t="shared" si="0"/>
-        <v>43900</v>
-      </c>
-      <c r="B25" s="25">
-        <v>43902</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" s="27">
-        <v>24</v>
-      </c>
-      <c r="E25" s="27">
-        <v>25</v>
-      </c>
-      <c r="F25" s="27">
-        <v>31</v>
-      </c>
-      <c r="G25" s="27">
-        <v>29</v>
-      </c>
-      <c r="H25" s="25">
-        <v>43907</v>
-      </c>
-      <c r="I25">
-        <v>1.61709401709401</v>
-      </c>
-      <c r="J25">
-        <v>1.6854700854700799</v>
-      </c>
-      <c r="K25">
-        <v>1.75555555555555</v>
-      </c>
-      <c r="L25">
-        <v>3.4918250999999998</v>
-      </c>
-      <c r="M25">
-        <v>3.1611813999999998</v>
-      </c>
-      <c r="N25">
-        <v>3.8386781000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="25">
-        <f t="shared" si="0"/>
-        <v>43901</v>
-      </c>
-      <c r="B26" s="25">
-        <v>43903</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" s="27">
-        <v>25</v>
-      </c>
-      <c r="E26" s="27">
-        <v>26</v>
-      </c>
-      <c r="F26" s="27">
-        <v>32</v>
-      </c>
-      <c r="G26" s="27">
-        <v>30</v>
-      </c>
-      <c r="H26" s="25">
-        <v>43908</v>
-      </c>
-      <c r="I26">
-        <v>1.5846153846153801</v>
-      </c>
-      <c r="J26">
-        <v>1.6555555555555499</v>
-      </c>
-      <c r="K26">
-        <v>1.71452991452991</v>
-      </c>
-      <c r="L26">
-        <v>3.5644417000000002</v>
-      </c>
-      <c r="M26">
-        <v>3.2811753000000001</v>
-      </c>
-      <c r="N26">
-        <v>3.8592686</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="25">
-        <f t="shared" si="0"/>
-        <v>43902</v>
-      </c>
-      <c r="B27" s="25">
-        <v>43904</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" s="27">
-        <v>26</v>
-      </c>
-      <c r="E27" s="27">
-        <v>27</v>
-      </c>
-      <c r="F27" s="27">
-        <v>33</v>
-      </c>
-      <c r="G27" s="27">
-        <v>31</v>
-      </c>
-      <c r="H27" s="25">
-        <v>43909</v>
-      </c>
-      <c r="I27">
-        <v>1.5042735042735</v>
-      </c>
-      <c r="J27">
-        <v>1.5757359924026499</v>
-      </c>
-      <c r="K27">
-        <v>1.6358974358974301</v>
-      </c>
-      <c r="L27">
-        <v>3.0809779000000002</v>
-      </c>
-      <c r="M27">
-        <v>2.8581826000000001</v>
-      </c>
-      <c r="N27">
-        <v>3.3120156999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="25">
-        <f t="shared" si="0"/>
-        <v>43903</v>
-      </c>
-      <c r="B28" s="25">
-        <v>43905</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" s="27">
-        <v>27</v>
-      </c>
-      <c r="E28" s="27">
-        <v>28</v>
-      </c>
-      <c r="F28" s="27">
-        <v>34</v>
-      </c>
-      <c r="G28" s="27">
-        <v>32</v>
-      </c>
-      <c r="H28" s="25">
-        <v>43910</v>
-      </c>
-      <c r="I28">
-        <v>1.46723646723646</v>
-      </c>
-      <c r="J28">
-        <v>1.52136752136752</v>
-      </c>
-      <c r="K28">
-        <v>1.5726495726495699</v>
-      </c>
-      <c r="L28">
-        <v>2.8634686</v>
-      </c>
-      <c r="M28">
-        <v>2.6803219</v>
-      </c>
-      <c r="N28">
-        <v>3.0525821</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="25">
-        <f t="shared" si="0"/>
-        <v>43904</v>
-      </c>
-      <c r="B29" s="25">
-        <v>43906</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" s="27">
-        <v>28</v>
-      </c>
-      <c r="E29" s="27">
-        <v>29</v>
-      </c>
-      <c r="F29" s="27">
-        <v>35</v>
-      </c>
-      <c r="G29" s="27">
-        <v>33</v>
-      </c>
-      <c r="H29" s="25">
-        <v>43911</v>
-      </c>
-      <c r="I29">
-        <v>1.37321937321937</v>
-      </c>
-      <c r="J29">
-        <v>1.42022792022792</v>
-      </c>
-      <c r="K29">
-        <v>1.47008547008547</v>
-      </c>
-      <c r="L29">
-        <v>2.6326960000000001</v>
-      </c>
-      <c r="M29">
-        <v>2.4802127</v>
-      </c>
-      <c r="N29">
-        <v>2.7896638999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="25">
-        <f t="shared" si="0"/>
-        <v>43905</v>
-      </c>
-      <c r="B30" s="25">
-        <v>43907</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" s="27">
-        <v>29</v>
-      </c>
-      <c r="E30" s="27">
-        <v>30</v>
-      </c>
-      <c r="F30" s="27">
-        <v>36</v>
-      </c>
-      <c r="G30" s="27">
-        <v>34</v>
-      </c>
-      <c r="H30" s="25">
-        <v>43912</v>
-      </c>
-      <c r="I30">
-        <v>1.3395061728394999</v>
-      </c>
-      <c r="J30">
-        <v>1.37986704653371</v>
-      </c>
-      <c r="K30">
-        <v>1.4190408357074999</v>
-      </c>
-      <c r="L30">
-        <v>2.4692205</v>
-      </c>
-      <c r="M30">
-        <v>2.3395286</v>
-      </c>
-      <c r="N30">
-        <v>2.6023616000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="25">
-        <f t="shared" si="0"/>
-        <v>43906</v>
-      </c>
-      <c r="B31" s="25">
-        <v>43908</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31" s="27">
-        <v>30</v>
-      </c>
-      <c r="E31" s="27">
-        <v>31</v>
-      </c>
-      <c r="F31" s="27">
-        <v>37</v>
-      </c>
-      <c r="G31" s="27">
-        <v>35</v>
-      </c>
-      <c r="H31" s="25">
-        <v>43913</v>
-      </c>
-      <c r="I31">
-        <v>1.3276353276353201</v>
-      </c>
-      <c r="J31">
-        <v>1.36324786324786</v>
-      </c>
-      <c r="K31">
-        <v>1.4107312440645701</v>
-      </c>
-      <c r="L31">
-        <v>2.4781551999999998</v>
-      </c>
-      <c r="M31">
-        <v>2.3627417999999998</v>
-      </c>
-      <c r="N31">
-        <v>2.596282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="25">
-        <f t="shared" si="0"/>
-        <v>43907</v>
-      </c>
-      <c r="B32" s="25">
-        <v>43909</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32" s="27">
-        <v>31</v>
-      </c>
-      <c r="E32" s="27">
-        <v>32</v>
-      </c>
-      <c r="F32" s="27">
-        <v>38</v>
-      </c>
-      <c r="G32" s="27">
-        <v>36</v>
-      </c>
-      <c r="H32" s="25">
-        <v>43914</v>
-      </c>
-      <c r="I32">
-        <v>1.27540360873694</v>
-      </c>
-      <c r="J32">
-        <v>1.30864197530864</v>
-      </c>
-      <c r="K32">
-        <v>1.34188034188034</v>
-      </c>
-      <c r="L32">
-        <v>2.1823921999999998</v>
-      </c>
-      <c r="M32">
-        <v>2.0857306000000002</v>
-      </c>
-      <c r="N32">
-        <v>2.2812125000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="25">
-        <f t="shared" si="0"/>
-        <v>43908</v>
-      </c>
-      <c r="B33" s="25">
-        <v>43910</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33" s="27">
-        <v>32</v>
-      </c>
-      <c r="E33" s="27">
-        <v>33</v>
-      </c>
-      <c r="F33" s="27">
-        <v>39</v>
-      </c>
-      <c r="G33" s="27">
-        <v>37</v>
-      </c>
-      <c r="H33" s="25">
-        <v>43915</v>
-      </c>
-      <c r="I33">
-        <v>1.2386039886039799</v>
-      </c>
-      <c r="J33">
-        <v>1.2765906932573601</v>
-      </c>
-      <c r="K33">
-        <v>1.3181386514719799</v>
-      </c>
-      <c r="L33">
-        <v>2.1619942000000001</v>
-      </c>
-      <c r="M33">
-        <v>2.0755300999999999</v>
-      </c>
-      <c r="N33">
-        <v>2.2501980000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="25">
-        <f t="shared" si="0"/>
-        <v>43909</v>
-      </c>
-      <c r="B34" s="25">
-        <v>43911</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34" s="27">
-        <v>33</v>
-      </c>
-      <c r="E34" s="27">
-        <v>34</v>
-      </c>
-      <c r="F34" s="27">
-        <v>40</v>
-      </c>
-      <c r="G34" s="27">
-        <v>38</v>
-      </c>
-      <c r="H34" s="25">
-        <v>43916</v>
-      </c>
-      <c r="I34">
-        <v>1.1887464387464399</v>
-      </c>
-      <c r="J34">
-        <v>1.2196106362773</v>
-      </c>
-      <c r="K34">
-        <v>1.252849002849</v>
-      </c>
-      <c r="L34">
-        <v>2.0909336999999999</v>
-      </c>
-      <c r="M34">
-        <v>2.0136466999999998</v>
-      </c>
-      <c r="N34">
-        <v>2.1696558000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="25">
-        <f t="shared" si="0"/>
-        <v>43910</v>
-      </c>
-      <c r="B35" s="25">
-        <v>43912</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" s="27">
-        <v>34</v>
-      </c>
-      <c r="E35" s="27">
-        <v>35</v>
-      </c>
-      <c r="F35" s="27">
-        <v>41</v>
-      </c>
-      <c r="G35" s="27">
-        <v>39</v>
-      </c>
-      <c r="H35" s="25">
-        <v>43917</v>
-      </c>
-      <c r="I35">
-        <v>1.13888888888888</v>
-      </c>
-      <c r="J35">
-        <v>1.1721272554605799</v>
-      </c>
-      <c r="K35">
-        <v>1.21248812915479</v>
-      </c>
-      <c r="L35">
-        <v>2.0422948999999999</v>
-      </c>
-      <c r="M35">
-        <v>1.9726672000000001</v>
-      </c>
-      <c r="N35">
-        <v>2.1131134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="25">
-        <f t="shared" si="0"/>
-        <v>43911</v>
-      </c>
-      <c r="B36" s="25">
-        <v>43913</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36" s="27">
-        <v>35</v>
-      </c>
-      <c r="E36" s="27">
-        <v>36</v>
-      </c>
-      <c r="F36" s="27">
-        <v>42</v>
-      </c>
-      <c r="G36" s="27">
-        <v>40</v>
-      </c>
-      <c r="H36" s="25">
-        <v>43918</v>
-      </c>
-      <c r="I36">
-        <v>1.0985280151946799</v>
-      </c>
-      <c r="J36">
-        <v>1.1240503323836599</v>
-      </c>
-      <c r="K36">
-        <v>1.1531339031339001</v>
-      </c>
-      <c r="L36">
-        <v>2.0458188000000002</v>
-      </c>
-      <c r="M36">
-        <v>1.982037</v>
-      </c>
-      <c r="N36">
-        <v>2.1105966999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="25">
-        <f t="shared" si="0"/>
-        <v>43912</v>
-      </c>
-      <c r="B37" s="25">
-        <v>43914</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37" s="27">
-        <v>36</v>
-      </c>
-      <c r="E37" s="27">
-        <v>37</v>
-      </c>
-      <c r="F37" s="27">
-        <v>43</v>
-      </c>
-      <c r="G37" s="27">
-        <v>41</v>
-      </c>
-      <c r="H37" s="25">
-        <v>43919</v>
-      </c>
-      <c r="I37">
-        <v>1.0486704653371299</v>
-      </c>
-      <c r="J37">
-        <v>1.07953466286799</v>
-      </c>
-      <c r="K37">
-        <v>1.1151471984805299</v>
-      </c>
-      <c r="L37">
-        <v>1.9267911</v>
-      </c>
-      <c r="M37">
-        <v>1.8700376000000001</v>
-      </c>
-      <c r="N37">
-        <v>1.9843811</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="25">
-        <f t="shared" si="0"/>
-        <v>43913</v>
-      </c>
-      <c r="B38" s="25">
-        <v>43915</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38" s="27">
-        <v>37</v>
-      </c>
-      <c r="E38" s="27">
-        <v>38</v>
-      </c>
-      <c r="F38" s="27">
-        <v>44</v>
-      </c>
-      <c r="G38" s="27">
-        <v>42</v>
-      </c>
-      <c r="H38" s="25">
-        <v>43920</v>
-      </c>
-      <c r="I38">
-        <v>1.04510921177587</v>
-      </c>
-      <c r="J38">
-        <v>1.0201804368470999</v>
-      </c>
-      <c r="K38">
-        <v>1.0664767331434</v>
-      </c>
-      <c r="L38">
-        <v>1.6222382</v>
-      </c>
-      <c r="M38">
-        <v>1.574379</v>
-      </c>
-      <c r="N38">
-        <v>1.6708038999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="25">
-        <f t="shared" si="0"/>
-        <v>43914</v>
-      </c>
-      <c r="B39" s="25">
-        <v>43916</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39" s="27">
-        <v>38</v>
-      </c>
-      <c r="E39" s="27">
-        <v>39</v>
-      </c>
-      <c r="F39" s="27">
-        <v>45</v>
-      </c>
-      <c r="G39" s="27">
-        <v>43</v>
-      </c>
-      <c r="H39" s="25">
-        <v>43921</v>
-      </c>
-      <c r="I39">
-        <v>0.97625830959164295</v>
-      </c>
-      <c r="J39">
-        <v>1.0035612535612499</v>
-      </c>
-      <c r="K39">
-        <v>1.03442545109211</v>
-      </c>
-      <c r="L39">
-        <v>1.641373</v>
-      </c>
-      <c r="M39">
-        <v>1.5965525</v>
-      </c>
-      <c r="N39">
-        <v>1.6868053000000001</v>
-      </c>
-      <c r="U39">
-        <f>(S39+T39)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="25">
-        <f t="shared" si="0"/>
-        <v>43915</v>
-      </c>
-      <c r="B40" s="25">
-        <v>43917</v>
-      </c>
-      <c r="C40">
-        <v>39</v>
-      </c>
-      <c r="D40" s="27">
-        <v>39</v>
-      </c>
-      <c r="E40" s="27">
-        <v>40</v>
-      </c>
-      <c r="F40" s="27">
-        <v>46</v>
-      </c>
-      <c r="G40" s="27">
-        <v>44</v>
-      </c>
-      <c r="H40" s="25">
-        <v>43922</v>
-      </c>
-      <c r="I40">
-        <v>0.95845204178537602</v>
-      </c>
-      <c r="J40">
-        <v>0.98812915479582197</v>
-      </c>
-      <c r="K40">
-        <v>1.0130579297245901</v>
-      </c>
-      <c r="L40">
-        <v>1.5104544</v>
-      </c>
-      <c r="M40">
-        <v>1.4698964999999999</v>
-      </c>
-      <c r="N40">
-        <v>1.5515565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="25">
-        <f t="shared" si="0"/>
-        <v>43916</v>
-      </c>
-      <c r="B41" s="25">
-        <v>43918</v>
-      </c>
-      <c r="C41">
-        <v>40</v>
-      </c>
-      <c r="D41" s="27">
-        <v>40</v>
-      </c>
-      <c r="E41" s="27">
-        <v>41</v>
-      </c>
-      <c r="F41" s="27">
-        <v>47</v>
-      </c>
-      <c r="G41" s="27">
-        <v>45</v>
-      </c>
-      <c r="H41" s="25">
-        <v>43923</v>
-      </c>
-      <c r="I41">
-        <v>0.93114909781576405</v>
-      </c>
-      <c r="J41">
-        <v>0.95726495726495797</v>
-      </c>
-      <c r="K41">
-        <v>0.98338081671415001</v>
-      </c>
-      <c r="L41">
-        <v>1.4140659</v>
-      </c>
-      <c r="M41">
-        <v>1.3769087</v>
-      </c>
-      <c r="N41">
-        <v>1.451711</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="25">
-        <f t="shared" si="0"/>
-        <v>43917</v>
-      </c>
-      <c r="B42" s="25">
-        <v>43919</v>
-      </c>
-      <c r="C42">
-        <v>41</v>
-      </c>
-      <c r="D42" s="27">
-        <v>41</v>
-      </c>
-      <c r="E42" s="27">
-        <v>42</v>
-      </c>
-      <c r="F42" s="27">
-        <v>48</v>
-      </c>
-      <c r="G42" s="27">
-        <v>46</v>
-      </c>
-      <c r="H42" s="25">
-        <v>43924</v>
-      </c>
-      <c r="I42">
-        <v>0.91571699905033199</v>
-      </c>
-      <c r="J42">
-        <v>0.94183285849952603</v>
-      </c>
-      <c r="K42">
-        <v>0.97032288698955405</v>
-      </c>
-      <c r="L42">
-        <v>1.3200805</v>
-      </c>
-      <c r="M42">
-        <v>1.2857877</v>
-      </c>
-      <c r="N42">
-        <v>1.3548184000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="25">
-        <f t="shared" si="0"/>
-        <v>43918</v>
-      </c>
-      <c r="B43" s="25">
-        <v>43920</v>
-      </c>
-      <c r="C43">
-        <v>42</v>
-      </c>
-      <c r="D43" s="27">
-        <v>42</v>
-      </c>
-      <c r="E43" s="27">
-        <v>43</v>
-      </c>
-      <c r="F43" s="27">
-        <v>49</v>
-      </c>
-      <c r="G43" s="27">
-        <v>47</v>
-      </c>
-      <c r="H43" s="25">
-        <v>43925</v>
-      </c>
-      <c r="I43">
-        <v>0.929962013295346</v>
-      </c>
-      <c r="J43">
-        <v>0.95489078822412199</v>
-      </c>
-      <c r="K43">
-        <v>0.98100664767331502</v>
-      </c>
-      <c r="L43">
-        <v>1.1664436</v>
-      </c>
-      <c r="M43">
-        <v>1.1354089000000001</v>
-      </c>
-      <c r="N43">
-        <v>1.1978909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="25">
-        <f t="shared" si="0"/>
-        <v>43919</v>
-      </c>
-      <c r="B44" s="25">
-        <v>43921</v>
-      </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-      <c r="D44" s="27">
-        <v>43</v>
-      </c>
-      <c r="E44" s="27">
-        <v>44</v>
-      </c>
-      <c r="F44" s="27">
-        <v>50</v>
-      </c>
-      <c r="G44" s="27">
-        <v>48</v>
-      </c>
-      <c r="H44" s="25">
-        <v>43926</v>
-      </c>
-      <c r="I44">
-        <v>0.94658119658119599</v>
-      </c>
-      <c r="J44">
-        <v>0.97032288698955405</v>
-      </c>
-      <c r="K44">
-        <v>0.99525166191832903</v>
-      </c>
-      <c r="L44">
-        <v>1.0949259</v>
-      </c>
-      <c r="M44">
-        <v>1.0656908</v>
-      </c>
-      <c r="N44">
-        <v>1.1245510999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="25">
-        <f t="shared" si="0"/>
-        <v>43920</v>
-      </c>
-      <c r="B45" s="25">
-        <v>43922</v>
-      </c>
-      <c r="C45">
-        <v>44</v>
-      </c>
-      <c r="D45" s="27">
-        <v>44</v>
-      </c>
-      <c r="E45" s="27">
-        <v>45</v>
-      </c>
-      <c r="F45" s="27">
-        <v>51</v>
-      </c>
-      <c r="G45" s="27">
-        <v>49</v>
-      </c>
-      <c r="H45" s="25">
-        <v>43927</v>
-      </c>
-      <c r="I45">
-        <v>0.94301994301994396</v>
-      </c>
-      <c r="J45">
-        <v>0.97507122507122501</v>
-      </c>
-      <c r="K45">
-        <v>0.99881291547958195</v>
-      </c>
-      <c r="L45">
-        <v>1.0598361999999999</v>
-      </c>
-      <c r="M45">
-        <v>1.0315538</v>
-      </c>
-      <c r="N45">
-        <v>1.0884957</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="25">
-        <f t="shared" si="0"/>
-        <v>43921</v>
-      </c>
-      <c r="B46" s="25">
-        <v>43923</v>
-      </c>
-      <c r="C46">
-        <v>45</v>
-      </c>
-      <c r="D46" s="27">
-        <v>45</v>
-      </c>
-      <c r="E46" s="27">
-        <v>46</v>
-      </c>
-      <c r="F46" s="27">
-        <v>52</v>
-      </c>
-      <c r="G46" s="27">
-        <v>50</v>
-      </c>
-      <c r="H46" s="25">
-        <v>43928</v>
-      </c>
-      <c r="I46">
-        <v>0.94776828110161404</v>
-      </c>
-      <c r="J46">
-        <v>0.97032288698955405</v>
-      </c>
-      <c r="K46">
-        <v>0.99347103513770396</v>
-      </c>
-      <c r="L46">
-        <v>0.97542439999999997</v>
-      </c>
-      <c r="M46">
-        <v>0.94857279999999999</v>
-      </c>
-      <c r="N46">
-        <v>1.0026455999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="25">
-        <f t="shared" si="0"/>
-        <v>43922</v>
-      </c>
-      <c r="B47" s="25">
-        <v>43924</v>
-      </c>
-      <c r="C47">
-        <v>46</v>
-      </c>
-      <c r="D47" s="27">
-        <v>46</v>
-      </c>
-      <c r="E47" s="27">
-        <v>47</v>
-      </c>
-      <c r="F47" s="27">
-        <v>53</v>
-      </c>
-      <c r="G47" s="27">
-        <v>51</v>
-      </c>
-      <c r="H47" s="25">
-        <v>43929</v>
-      </c>
-      <c r="I47">
-        <v>0.91690408357075004</v>
-      </c>
-      <c r="J47">
-        <v>0.94420702754036001</v>
-      </c>
-      <c r="K47">
-        <v>0.97150997150997198</v>
-      </c>
-      <c r="L47">
-        <v>0.94515740000000004</v>
-      </c>
-      <c r="M47">
-        <v>0.91885260000000002</v>
-      </c>
-      <c r="N47">
-        <v>0.97182820000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="25">
-        <f t="shared" si="0"/>
-        <v>43923</v>
-      </c>
-      <c r="B48" s="25">
-        <v>43925</v>
-      </c>
-      <c r="C48">
-        <v>47</v>
-      </c>
-      <c r="D48" s="27">
-        <v>47</v>
-      </c>
-      <c r="E48" s="27">
-        <v>48</v>
-      </c>
-      <c r="F48" s="27">
-        <v>54</v>
-      </c>
-      <c r="G48" s="27">
-        <v>52</v>
-      </c>
-      <c r="H48" s="25">
-        <v>43930</v>
-      </c>
-      <c r="I48">
-        <v>0.93114909781576405</v>
-      </c>
-      <c r="J48">
-        <v>0.95311016144349503</v>
-      </c>
-      <c r="K48">
-        <v>0.97507122507122501</v>
-      </c>
-      <c r="L48">
-        <v>0.95497639999999995</v>
-      </c>
-      <c r="M48">
-        <v>0.92848419999999998</v>
-      </c>
-      <c r="N48">
-        <v>0.98183589999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="25">
-        <f t="shared" si="0"/>
-        <v>43924</v>
-      </c>
-      <c r="B49" s="25">
-        <v>43926</v>
-      </c>
-      <c r="C49">
-        <v>48</v>
-      </c>
-      <c r="D49" s="27">
-        <v>48</v>
-      </c>
-      <c r="E49" s="27">
-        <v>49</v>
-      </c>
-      <c r="F49" s="27">
-        <v>55</v>
-      </c>
-      <c r="G49" s="27">
-        <v>53</v>
-      </c>
-      <c r="H49" s="25">
-        <v>43931</v>
-      </c>
-      <c r="I49">
-        <v>0.91571699905033199</v>
-      </c>
-      <c r="J49">
-        <v>0.94301994301994096</v>
-      </c>
-      <c r="K49">
-        <v>0.97447768281101599</v>
-      </c>
-      <c r="L49">
-        <v>1.0940817</v>
-      </c>
-      <c r="M49">
-        <v>1.0655790000000001</v>
-      </c>
-      <c r="N49">
-        <v>1.1229552</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="25">
-        <f t="shared" si="0"/>
-        <v>43925</v>
-      </c>
-      <c r="B50" s="25">
-        <v>43927</v>
-      </c>
-      <c r="C50">
-        <v>49</v>
-      </c>
-      <c r="D50" s="27">
-        <v>49</v>
-      </c>
-      <c r="E50" s="27">
-        <v>50</v>
-      </c>
-      <c r="F50" s="27">
-        <v>56</v>
-      </c>
-      <c r="G50" s="27">
-        <v>54</v>
-      </c>
-      <c r="H50" s="25">
-        <v>43932</v>
-      </c>
-      <c r="I50">
-        <v>0.91334283000949601</v>
-      </c>
-      <c r="J50">
-        <v>0.93708452041785195</v>
-      </c>
-      <c r="K50">
-        <v>0.96320037986704998</v>
-      </c>
-      <c r="L50">
-        <v>1.0717144000000001</v>
-      </c>
-      <c r="M50">
-        <v>1.0434840999999999</v>
-      </c>
-      <c r="N50">
-        <v>1.1003163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="25">
-        <f t="shared" si="0"/>
-        <v>43926</v>
-      </c>
-      <c r="B51" s="25">
-        <v>43928</v>
-      </c>
-      <c r="C51">
-        <v>50</v>
-      </c>
-      <c r="D51" s="27">
-        <v>50</v>
-      </c>
-      <c r="E51" s="27">
-        <v>51</v>
-      </c>
-      <c r="F51" s="27">
-        <v>57</v>
-      </c>
-      <c r="G51" s="27">
-        <v>55</v>
-      </c>
-      <c r="H51" s="25">
-        <v>43933</v>
-      </c>
-      <c r="I51">
-        <v>0.88366571699905005</v>
-      </c>
-      <c r="J51">
-        <v>0.91334283000949601</v>
-      </c>
-      <c r="K51">
-        <v>0.95132953466286796</v>
-      </c>
-      <c r="L51">
-        <v>1.0262484000000001</v>
-      </c>
-      <c r="M51">
-        <v>0.99882400000000005</v>
-      </c>
-      <c r="N51">
-        <v>1.0540391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="25">
-        <f t="shared" si="0"/>
-        <v>43927</v>
-      </c>
-      <c r="B52" s="25">
-        <v>43929</v>
-      </c>
-      <c r="C52">
-        <v>51</v>
-      </c>
-      <c r="D52" s="27">
-        <v>51</v>
-      </c>
-      <c r="E52" s="27">
-        <v>52</v>
-      </c>
-      <c r="F52" s="27">
-        <v>58</v>
-      </c>
-      <c r="G52" s="27">
-        <v>56</v>
-      </c>
-      <c r="H52" s="25">
-        <v>43934</v>
-      </c>
-      <c r="I52">
-        <v>0.86585944919278302</v>
-      </c>
-      <c r="J52">
-        <v>0.89197530864197505</v>
-      </c>
-      <c r="K52">
-        <v>0.92046533713200296</v>
-      </c>
-      <c r="L52">
-        <v>0.99411490000000002</v>
-      </c>
-      <c r="M52">
-        <v>0.96728930000000002</v>
-      </c>
-      <c r="N52">
-        <v>1.0213022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="25">
-        <f t="shared" si="0"/>
-        <v>43928</v>
-      </c>
-      <c r="B53" s="25">
-        <v>43930</v>
-      </c>
-      <c r="C53">
-        <v>52</v>
-      </c>
-      <c r="D53" s="27">
-        <v>52</v>
-      </c>
-      <c r="E53" s="27">
-        <v>53</v>
-      </c>
-      <c r="F53" s="27">
-        <v>59</v>
-      </c>
-      <c r="G53" s="27">
-        <v>57</v>
-      </c>
-      <c r="H53" s="25">
-        <v>43935</v>
-      </c>
-      <c r="I53">
-        <v>0.87179487179487203</v>
-      </c>
-      <c r="J53">
-        <v>0.90384615384615496</v>
-      </c>
-      <c r="K53">
-        <v>0.93589743589743601</v>
-      </c>
-      <c r="L53">
-        <v>0.95164090000000001</v>
-      </c>
-      <c r="M53">
-        <v>0.92546220000000001</v>
-      </c>
-      <c r="N53">
-        <v>0.97817969999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="25">
-        <f t="shared" si="0"/>
-        <v>43929</v>
-      </c>
-      <c r="B54" s="25">
-        <v>43931</v>
-      </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
-      <c r="D54" s="27">
-        <v>53</v>
-      </c>
-      <c r="E54" s="27">
-        <v>54</v>
-      </c>
-      <c r="F54" s="27">
-        <v>60</v>
-      </c>
-      <c r="G54" s="27">
-        <v>58</v>
-      </c>
-      <c r="H54" s="25">
-        <v>43936</v>
-      </c>
-      <c r="I54">
-        <v>0.87298195631528996</v>
-      </c>
-      <c r="J54">
-        <v>0.89672364672364702</v>
-      </c>
-      <c r="K54">
-        <v>0.92283950617283905</v>
-      </c>
-      <c r="L54">
-        <v>0.94330939999999996</v>
-      </c>
-      <c r="M54">
-        <v>0.91721450000000004</v>
-      </c>
-      <c r="N54">
-        <v>0.96976510000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="25">
-        <f t="shared" si="0"/>
-        <v>43930</v>
-      </c>
-      <c r="B55" s="25">
-        <v>43932</v>
-      </c>
-      <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" s="27">
-        <v>54</v>
-      </c>
-      <c r="E55" s="27">
-        <v>55</v>
-      </c>
-      <c r="F55" s="27">
-        <v>61</v>
-      </c>
-      <c r="G55" s="27">
-        <v>59</v>
-      </c>
-      <c r="H55" s="25">
-        <v>43937</v>
-      </c>
-      <c r="I55">
-        <v>0.85636277302943997</v>
-      </c>
-      <c r="J55">
-        <v>0.890788224121557</v>
-      </c>
-      <c r="K55">
-        <v>0.92165242165242101</v>
-      </c>
-      <c r="L55">
-        <v>0.93953319999999996</v>
-      </c>
-      <c r="M55">
-        <v>0.91337170000000001</v>
-      </c>
-      <c r="N55">
-        <v>0.96605890000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="25">
-        <f t="shared" si="0"/>
-        <v>43931</v>
-      </c>
-      <c r="B56" s="25">
-        <v>43933</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56" s="27">
-        <v>55</v>
-      </c>
-      <c r="E56" s="27">
-        <v>56</v>
-      </c>
-      <c r="F56" s="27">
-        <v>62</v>
-      </c>
-      <c r="G56" s="27">
-        <v>60</v>
-      </c>
-      <c r="H56" s="25">
-        <v>43938</v>
-      </c>
-      <c r="I56">
-        <v>0.859924026590693</v>
-      </c>
-      <c r="J56">
-        <v>0.88603988603988704</v>
-      </c>
-      <c r="K56">
-        <v>0.91096866096866103</v>
-      </c>
-      <c r="L56">
-        <v>0.69091380000000002</v>
-      </c>
-      <c r="M56">
-        <v>0.66837400000000002</v>
-      </c>
-      <c r="N56">
-        <v>0.71382210000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="25">
-        <f t="shared" si="0"/>
-        <v>43932</v>
-      </c>
-      <c r="B57" s="25">
-        <v>43934</v>
-      </c>
-      <c r="C57">
-        <v>56</v>
-      </c>
-      <c r="D57" s="27">
-        <v>56</v>
-      </c>
-      <c r="E57" s="27">
-        <v>57</v>
-      </c>
-      <c r="F57" s="27">
-        <v>63</v>
-      </c>
-      <c r="G57" s="27">
-        <v>61</v>
-      </c>
-      <c r="H57" s="25">
-        <v>43939</v>
-      </c>
-      <c r="I57">
-        <v>0.85398860398860399</v>
-      </c>
-      <c r="J57">
-        <v>0.88247863247863201</v>
-      </c>
-      <c r="K57">
-        <v>0.90978157644824298</v>
-      </c>
-      <c r="L57">
-        <v>0.73947589999999996</v>
-      </c>
-      <c r="M57">
-        <v>0.71583549999999996</v>
-      </c>
-      <c r="N57">
-        <v>0.76349500000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="25">
-        <f t="shared" si="0"/>
-        <v>43933</v>
-      </c>
-      <c r="B58" s="25">
-        <v>43935</v>
-      </c>
-      <c r="C58">
-        <v>57</v>
-      </c>
-      <c r="D58" s="27">
-        <v>57</v>
-      </c>
-      <c r="E58" s="27">
-        <v>58</v>
-      </c>
-      <c r="F58" s="27">
-        <v>64</v>
-      </c>
-      <c r="G58" s="27">
-        <v>62</v>
-      </c>
-      <c r="H58" s="25">
-        <v>43940</v>
-      </c>
-      <c r="I58">
-        <v>0.86229819563152899</v>
-      </c>
-      <c r="J58">
-        <v>0.88603988603988504</v>
-      </c>
-      <c r="K58">
-        <v>0.91571699905033199</v>
-      </c>
-      <c r="L58">
-        <v>0.76723050000000004</v>
-      </c>
-      <c r="M58">
-        <v>0.74244560000000004</v>
-      </c>
-      <c r="N58">
-        <v>0.79241669999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="25">
-        <f t="shared" si="0"/>
-        <v>43934</v>
-      </c>
-      <c r="B59" s="25">
-        <v>43936</v>
-      </c>
-      <c r="C59">
-        <v>58</v>
-      </c>
-      <c r="D59" s="27">
-        <v>58</v>
-      </c>
-      <c r="E59" s="27">
-        <v>59</v>
-      </c>
-      <c r="F59" s="27">
-        <v>65</v>
-      </c>
-      <c r="G59" s="27">
-        <v>63</v>
-      </c>
-      <c r="H59" s="25">
-        <v>43941</v>
-      </c>
-      <c r="I59">
-        <v>0.85398860398860399</v>
-      </c>
-      <c r="J59">
-        <v>0.87891737891737898</v>
-      </c>
-      <c r="K59">
-        <v>0.91215574548907896</v>
-      </c>
-      <c r="L59">
-        <v>0.88211309999999998</v>
-      </c>
-      <c r="M59">
-        <v>0.85474740000000005</v>
-      </c>
-      <c r="N59">
-        <v>0.90990389999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="25">
-        <f t="shared" si="0"/>
-        <v>43935</v>
-      </c>
-      <c r="B60" s="25">
-        <v>43937</v>
-      </c>
-      <c r="C60">
-        <v>59</v>
-      </c>
-      <c r="D60" s="27">
-        <v>59</v>
-      </c>
-      <c r="E60" s="27">
-        <v>60</v>
-      </c>
-      <c r="F60" s="27">
-        <v>66</v>
-      </c>
-      <c r="G60" s="27">
-        <v>64</v>
-      </c>
-      <c r="H60" s="25">
-        <v>43942</v>
-      </c>
-      <c r="I60">
-        <v>0.82431149097815803</v>
-      </c>
-      <c r="J60">
-        <v>0.85517568850902204</v>
-      </c>
-      <c r="K60">
-        <v>0.88722697056030497</v>
-      </c>
-      <c r="L60">
-        <v>0.92546050000000002</v>
-      </c>
-      <c r="M60">
-        <v>0.89675740000000004</v>
-      </c>
-      <c r="N60">
-        <v>0.9546095</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="25">
-        <f t="shared" si="0"/>
-        <v>43936</v>
-      </c>
-      <c r="B61" s="25">
-        <v>43938</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" s="27">
-        <v>60</v>
-      </c>
-      <c r="E61" s="27">
-        <v>61</v>
-      </c>
-      <c r="F61" s="27">
-        <v>67</v>
-      </c>
-      <c r="G61" s="27">
-        <v>65</v>
-      </c>
-      <c r="H61" s="25">
-        <v>43943</v>
-      </c>
-      <c r="I61">
-        <v>0.84449192782526095</v>
-      </c>
-      <c r="J61">
-        <v>0.87179487179487203</v>
-      </c>
-      <c r="K61">
-        <v>0.90028490028490005</v>
-      </c>
-      <c r="L61">
-        <v>0.94243060000000001</v>
-      </c>
-      <c r="M61">
-        <v>0.91305250000000004</v>
-      </c>
-      <c r="N61">
-        <v>0.97226749999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="25">
-        <f t="shared" si="0"/>
-        <v>43937</v>
-      </c>
-      <c r="B62" s="25">
-        <v>43939</v>
-      </c>
-      <c r="C62">
-        <v>61</v>
-      </c>
-      <c r="D62" s="27">
-        <v>61</v>
-      </c>
-      <c r="E62" s="27">
-        <v>62</v>
-      </c>
-      <c r="F62" s="27">
-        <v>68</v>
-      </c>
-      <c r="G62" s="27">
-        <v>66</v>
-      </c>
-      <c r="H62" s="25">
-        <v>43944</v>
-      </c>
-      <c r="I62">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="J62">
-        <v>0.88366571699904894</v>
-      </c>
-      <c r="K62">
-        <v>0.907407407407407</v>
-      </c>
-      <c r="L62">
-        <v>0.86616219999999999</v>
-      </c>
-      <c r="M62">
-        <v>0.83775409999999995</v>
-      </c>
-      <c r="N62">
-        <v>0.89503730000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="25">
-        <f t="shared" si="0"/>
-        <v>43938</v>
-      </c>
-      <c r="B63" s="25">
-        <v>43940</v>
-      </c>
-      <c r="C63">
-        <v>62</v>
-      </c>
-      <c r="D63" s="27">
-        <v>62</v>
-      </c>
-      <c r="E63" s="27">
-        <v>63</v>
-      </c>
-      <c r="F63" s="27">
-        <v>69</v>
-      </c>
-      <c r="G63" s="27">
-        <v>67</v>
-      </c>
-      <c r="H63" s="25">
-        <v>43945</v>
-      </c>
-      <c r="I63">
-        <v>0.85873694207027496</v>
-      </c>
-      <c r="J63">
-        <v>0.88485280151946899</v>
-      </c>
-      <c r="K63">
-        <v>0.91096866096866103</v>
-      </c>
-      <c r="L63">
-        <v>0.9482003</v>
-      </c>
-      <c r="M63">
-        <v>0.91819530000000005</v>
-      </c>
-      <c r="N63">
-        <v>0.97868089999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="25">
-        <f t="shared" si="0"/>
-        <v>43939</v>
-      </c>
-      <c r="B64" s="25">
-        <v>43941</v>
-      </c>
-      <c r="C64">
-        <v>63</v>
-      </c>
-      <c r="D64" s="27">
-        <v>63</v>
-      </c>
-      <c r="E64" s="27">
-        <v>64</v>
-      </c>
-      <c r="F64" s="27">
-        <v>70</v>
-      </c>
-      <c r="G64" s="27">
-        <v>68</v>
-      </c>
-      <c r="H64" s="25">
-        <v>43946</v>
-      </c>
-      <c r="I64">
-        <v>0.86942070275403605</v>
-      </c>
-      <c r="J64">
-        <v>0.88841405508072302</v>
-      </c>
-      <c r="K64">
-        <v>0.90978157644824298</v>
-      </c>
-      <c r="L64">
-        <v>0.9212842</v>
-      </c>
-      <c r="M64">
-        <v>0.89137889999999997</v>
-      </c>
-      <c r="N64">
-        <v>0.95167590000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="25">
-        <f t="shared" si="0"/>
-        <v>43940</v>
-      </c>
-      <c r="B65" s="25">
-        <v>43942</v>
-      </c>
-      <c r="C65">
-        <v>64</v>
-      </c>
-      <c r="D65" s="27">
-        <v>64</v>
-      </c>
-      <c r="E65" s="27">
-        <v>65</v>
-      </c>
-      <c r="F65" s="27">
-        <v>71</v>
-      </c>
-      <c r="G65" s="27">
-        <v>69</v>
-      </c>
-      <c r="H65" s="25">
-        <v>43947</v>
-      </c>
-      <c r="I65">
-        <v>0.86229819563152899</v>
-      </c>
-      <c r="J65">
-        <v>0.887820512820511</v>
-      </c>
-      <c r="K65">
-        <v>0.91809116809116897</v>
-      </c>
-      <c r="L65">
-        <v>0.90700780000000003</v>
-      </c>
-      <c r="M65">
-        <v>0.877112</v>
-      </c>
-      <c r="N65">
-        <v>0.93739760000000005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="25">
-        <f t="shared" si="0"/>
-        <v>43941</v>
-      </c>
-      <c r="B66" s="25">
-        <v>43943</v>
-      </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
-      <c r="D66" s="27">
-        <v>65</v>
-      </c>
-      <c r="E66" s="27">
-        <v>66</v>
-      </c>
-      <c r="F66" s="27">
-        <v>72</v>
-      </c>
-      <c r="G66" s="27">
-        <v>70</v>
-      </c>
-      <c r="H66" s="25">
-        <v>43948</v>
-      </c>
-      <c r="I66">
-        <v>0.907407407407407</v>
-      </c>
-      <c r="J66">
-        <v>0.88010446343779702</v>
-      </c>
-      <c r="K66">
-        <v>0.93945868945869004</v>
-      </c>
-      <c r="L66">
-        <v>0.79200369999999998</v>
-      </c>
-      <c r="M66">
-        <v>0.76383900000000005</v>
-      </c>
-      <c r="N66">
-        <v>0.82067100000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="25">
-        <f t="shared" ref="A67:A80" si="1">H67-7</f>
-        <v>43942</v>
-      </c>
-      <c r="B67" s="25">
-        <v>43944</v>
-      </c>
-      <c r="C67">
-        <v>66</v>
-      </c>
-      <c r="D67" s="27">
-        <v>66</v>
-      </c>
-      <c r="E67" s="27">
-        <v>67</v>
-      </c>
-      <c r="F67" s="27">
-        <v>73</v>
-      </c>
-      <c r="G67" s="27">
-        <v>71</v>
-      </c>
-      <c r="H67" s="25">
-        <v>43949</v>
-      </c>
-      <c r="I67">
-        <v>0.90800094966761302</v>
-      </c>
-      <c r="J67">
-        <v>0.93292972459638901</v>
-      </c>
-      <c r="K67">
-        <v>0.95607787274454104</v>
-      </c>
-      <c r="L67">
-        <v>0.75305089999999997</v>
-      </c>
-      <c r="M67">
-        <v>0.72523090000000001</v>
-      </c>
-      <c r="N67">
-        <v>0.7813871</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="25">
-        <f t="shared" si="1"/>
-        <v>43943</v>
-      </c>
-      <c r="B68" s="25">
-        <v>43945</v>
-      </c>
-      <c r="C68">
-        <v>67</v>
-      </c>
-      <c r="D68" s="27">
-        <v>67</v>
-      </c>
-      <c r="E68" s="27">
-        <v>68</v>
-      </c>
-      <c r="F68" s="27">
-        <v>74</v>
-      </c>
-      <c r="G68" s="27">
-        <v>72</v>
-      </c>
-      <c r="H68" s="25">
-        <v>43950</v>
-      </c>
-      <c r="I68">
-        <v>0.91927825261158702</v>
-      </c>
-      <c r="J68">
-        <v>0.94420702754036001</v>
-      </c>
-      <c r="K68">
-        <v>0.96972934472934502</v>
-      </c>
-      <c r="L68">
-        <v>0.66770560000000001</v>
-      </c>
-      <c r="M68">
-        <v>0.64094019999999996</v>
-      </c>
-      <c r="N68">
-        <v>0.69501080000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="25">
-        <f t="shared" si="1"/>
-        <v>43944</v>
-      </c>
-      <c r="B69" s="25">
-        <v>43946</v>
-      </c>
-      <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69" s="27">
-        <v>68</v>
-      </c>
-      <c r="E69" s="27">
-        <v>69</v>
-      </c>
-      <c r="F69" s="27">
-        <v>75</v>
-      </c>
-      <c r="G69" s="27">
-        <v>73</v>
-      </c>
-      <c r="H69" s="25">
-        <v>43951</v>
-      </c>
-      <c r="I69">
-        <v>0.94183285849952603</v>
-      </c>
-      <c r="J69">
-        <v>0.96438746438746203</v>
-      </c>
-      <c r="K69">
-        <v>0.98812915479582197</v>
-      </c>
-      <c r="L69">
-        <v>0.70729640000000005</v>
-      </c>
-      <c r="M69">
-        <v>0.67892600000000003</v>
-      </c>
-      <c r="N69">
-        <v>0.73623930000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="25">
-        <f t="shared" si="1"/>
-        <v>43945</v>
-      </c>
-      <c r="B70" s="25">
-        <v>43947</v>
-      </c>
-      <c r="C70">
-        <v>69</v>
-      </c>
-      <c r="D70" s="27">
-        <v>69</v>
-      </c>
-      <c r="E70" s="27">
-        <v>70</v>
-      </c>
-      <c r="F70" s="27">
-        <v>76</v>
-      </c>
-      <c r="G70" s="27">
-        <v>74</v>
-      </c>
-      <c r="H70" s="25">
-        <v>43952</v>
-      </c>
-      <c r="I70">
-        <v>0.95726495726495797</v>
-      </c>
-      <c r="J70">
-        <v>0.97981956315289498</v>
-      </c>
-      <c r="K70">
-        <v>1.00296771130104</v>
-      </c>
-      <c r="L70">
-        <v>0.71101570000000003</v>
-      </c>
-      <c r="M70">
-        <v>0.68155239999999995</v>
-      </c>
-      <c r="N70">
-        <v>0.74109369999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="25">
-        <f t="shared" si="1"/>
-        <v>43946</v>
-      </c>
-      <c r="B71" s="25">
-        <v>43948</v>
-      </c>
-      <c r="C71">
-        <v>70</v>
-      </c>
-      <c r="D71" s="27">
-        <v>70</v>
-      </c>
-      <c r="E71" s="27">
-        <v>71</v>
-      </c>
-      <c r="F71" s="27">
-        <v>77</v>
-      </c>
-      <c r="G71" s="27">
-        <v>75</v>
-      </c>
-      <c r="H71" s="25">
-        <v>43953</v>
-      </c>
-      <c r="I71">
-        <v>0.95963912630579196</v>
-      </c>
-      <c r="J71">
-        <v>0.98931623931624002</v>
-      </c>
-      <c r="K71">
-        <v>1.0201804368470999</v>
-      </c>
-      <c r="L71">
-        <v>0.66756660000000001</v>
-      </c>
-      <c r="M71">
-        <v>0.63803710000000002</v>
-      </c>
-      <c r="N71">
-        <v>0.6977546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="25">
-        <f t="shared" si="1"/>
-        <v>43947</v>
-      </c>
-      <c r="B72" s="25">
-        <v>43949</v>
-      </c>
-      <c r="C72">
-        <v>71</v>
-      </c>
-      <c r="D72" s="27">
-        <v>71</v>
-      </c>
-      <c r="E72" s="27">
-        <v>72</v>
-      </c>
-      <c r="F72" s="27">
-        <v>78</v>
-      </c>
-      <c r="G72" s="27">
-        <v>76</v>
-      </c>
-      <c r="H72" s="25">
-        <v>43954</v>
-      </c>
-      <c r="I72">
-        <v>0.97150997150997198</v>
-      </c>
-      <c r="J72">
-        <v>1.0041547958214601</v>
-      </c>
-      <c r="K72">
-        <v>1.0397673314339999</v>
-      </c>
-      <c r="L72">
-        <v>0.59702350000000004</v>
-      </c>
-      <c r="M72">
-        <v>0.56812490000000004</v>
-      </c>
-      <c r="N72">
-        <v>0.62662899999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="25">
-        <f t="shared" si="1"/>
-        <v>43948</v>
-      </c>
-      <c r="B73" s="25">
-        <v>43950</v>
-      </c>
-      <c r="C73">
-        <v>72</v>
-      </c>
-      <c r="D73" s="27">
-        <v>72</v>
-      </c>
-      <c r="E73" s="27">
-        <v>73</v>
-      </c>
-      <c r="F73" s="27">
-        <v>79</v>
-      </c>
-      <c r="G73" s="27">
-        <v>77</v>
-      </c>
-      <c r="H73" s="25">
-        <v>43955</v>
-      </c>
-      <c r="I73">
-        <v>0.98694207027540404</v>
-      </c>
-      <c r="J73">
-        <v>1.0154320987654299</v>
-      </c>
-      <c r="K73">
-        <v>1.0462962962962901</v>
-      </c>
-      <c r="L73">
-        <v>0.67953739999999996</v>
-      </c>
-      <c r="M73">
-        <v>0.64741839999999995</v>
-      </c>
-      <c r="N73">
-        <v>0.71242289999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="25">
-        <f t="shared" si="1"/>
-        <v>43949</v>
-      </c>
-      <c r="B74" s="25">
-        <v>43951</v>
-      </c>
-      <c r="C74">
-        <v>73</v>
-      </c>
-      <c r="D74" s="27">
-        <v>73</v>
-      </c>
-      <c r="E74" s="27">
-        <v>74</v>
-      </c>
-      <c r="F74" s="27">
-        <v>80</v>
-      </c>
-      <c r="G74" s="27">
-        <v>78</v>
-      </c>
-      <c r="H74" s="25">
-        <v>43956</v>
-      </c>
-      <c r="I74">
-        <v>0.99406457739791099</v>
-      </c>
-      <c r="J74">
-        <v>1.0237416904083501</v>
-      </c>
-      <c r="K74">
-        <v>1.0546058879392199</v>
-      </c>
-      <c r="L74">
-        <v>0.69076349999999997</v>
-      </c>
-      <c r="M74">
-        <v>0.65692830000000002</v>
-      </c>
-      <c r="N74">
-        <v>0.72543650000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="25">
-        <f t="shared" si="1"/>
-        <v>43950</v>
-      </c>
-      <c r="B75" s="25">
-        <v>43952</v>
-      </c>
-      <c r="C75">
-        <v>74</v>
-      </c>
-      <c r="D75" s="27">
-        <v>74</v>
-      </c>
-      <c r="E75" s="27">
-        <v>75</v>
-      </c>
-      <c r="F75" s="27">
-        <v>81</v>
-      </c>
-      <c r="G75" s="27">
-        <v>79</v>
-      </c>
-      <c r="H75" s="25">
-        <v>43957</v>
-      </c>
-      <c r="I75">
-        <v>1.02255460588793</v>
-      </c>
-      <c r="J75">
-        <v>0.99050332383665696</v>
-      </c>
-      <c r="K75">
-        <v>1.0534188034187999</v>
-      </c>
-      <c r="L75">
-        <v>0.88958570000000003</v>
-      </c>
-      <c r="M75">
-        <v>0.84960230000000003</v>
-      </c>
-      <c r="N75">
-        <v>0.93047570000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="25">
-        <f t="shared" si="1"/>
-        <v>43951</v>
-      </c>
-      <c r="B76" s="25">
-        <v>43953</v>
-      </c>
-      <c r="C76">
-        <v>75</v>
-      </c>
-      <c r="D76" s="27">
-        <v>75</v>
-      </c>
-      <c r="E76" s="27">
-        <v>76</v>
-      </c>
-      <c r="F76" s="27">
-        <v>82</v>
-      </c>
-      <c r="G76" s="27">
-        <v>80</v>
-      </c>
-      <c r="H76" s="25">
-        <v>43958</v>
-      </c>
-      <c r="I76">
-        <v>0.98219373219373196</v>
-      </c>
-      <c r="J76">
-        <v>1.0083095916429199</v>
-      </c>
-      <c r="K76">
-        <v>1.0403608736942001</v>
-      </c>
-      <c r="L76">
-        <v>1.0312437999999999</v>
-      </c>
-      <c r="M76">
-        <v>0.98680159999999995</v>
-      </c>
-      <c r="N76">
-        <v>1.0766511000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="25">
-        <f t="shared" si="1"/>
-        <v>43952</v>
-      </c>
-      <c r="B77" s="25">
-        <v>43954</v>
-      </c>
-      <c r="C77">
-        <v>76</v>
-      </c>
-      <c r="D77" s="27">
-        <v>76</v>
-      </c>
-      <c r="E77" s="27">
-        <v>77</v>
-      </c>
-      <c r="F77" s="27">
-        <v>83</v>
-      </c>
-      <c r="G77" s="27">
-        <v>81</v>
-      </c>
-      <c r="H77" s="25">
-        <v>43959</v>
-      </c>
-      <c r="I77">
-        <v>0.99643874643874697</v>
-      </c>
-      <c r="J77">
-        <v>1.0249287749287701</v>
-      </c>
-      <c r="K77">
-        <v>1.0546058879392199</v>
-      </c>
-      <c r="L77">
-        <v>1.1923334000000001</v>
-      </c>
-      <c r="M77">
-        <v>1.14391</v>
-      </c>
-      <c r="N77">
-        <v>1.2417465999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="25">
-        <f t="shared" si="1"/>
-        <v>43953</v>
-      </c>
-      <c r="B78" s="25">
-        <v>43955</v>
-      </c>
-      <c r="C78">
-        <v>77</v>
-      </c>
-      <c r="D78" s="27">
-        <v>77</v>
-      </c>
-      <c r="E78" s="27">
-        <v>78</v>
-      </c>
-      <c r="F78" s="27">
-        <v>84</v>
-      </c>
-      <c r="G78" s="27">
-        <v>82</v>
-      </c>
-      <c r="H78" s="25">
-        <v>43960</v>
-      </c>
-      <c r="I78">
-        <v>0.96320037986704599</v>
-      </c>
-      <c r="J78">
-        <v>0.99406457739791099</v>
-      </c>
-      <c r="K78">
-        <v>1.02849002849002</v>
-      </c>
-      <c r="L78">
-        <v>1.1480455000000001</v>
-      </c>
-      <c r="M78">
-        <v>1.1007492000000001</v>
-      </c>
-      <c r="N78">
-        <v>1.1963226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="25">
-        <f t="shared" si="1"/>
-        <v>43954</v>
-      </c>
-      <c r="B79" s="25">
-        <v>43956</v>
-      </c>
-      <c r="C79">
-        <v>78</v>
-      </c>
-      <c r="D79" s="27">
-        <v>78</v>
-      </c>
-      <c r="E79" s="27">
-        <v>79</v>
-      </c>
-      <c r="F79" s="27">
-        <v>85</v>
-      </c>
-      <c r="G79" s="27">
-        <v>83</v>
-      </c>
-      <c r="H79" s="25">
-        <v>43961</v>
-      </c>
-      <c r="I79">
-        <v>0.91927825261158702</v>
-      </c>
-      <c r="J79">
-        <v>0.94420702754036001</v>
-      </c>
-      <c r="K79">
-        <v>0.97507122507122501</v>
-      </c>
-      <c r="L79">
-        <v>1.1549429</v>
-      </c>
-      <c r="M79">
-        <v>1.10822</v>
-      </c>
-      <c r="N79">
-        <v>1.202617</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="25">
-        <f t="shared" si="1"/>
-        <v>43955</v>
-      </c>
-      <c r="B80" s="25">
-        <v>43957</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" s="27">
-        <v>79</v>
-      </c>
-      <c r="E80" s="27">
-        <v>80</v>
-      </c>
-      <c r="F80" s="27">
-        <v>86</v>
-      </c>
-      <c r="G80" s="27">
-        <v>84</v>
-      </c>
-      <c r="H80" s="25">
-        <v>43962</v>
-      </c>
-      <c r="I80">
-        <v>0.88960113960113896</v>
-      </c>
-      <c r="J80">
-        <v>0.91512345679012597</v>
-      </c>
-      <c r="K80">
-        <v>0.938271604938269</v>
-      </c>
-      <c r="L80">
-        <v>1.0504647</v>
-      </c>
-      <c r="M80">
-        <v>1.0065869999999999</v>
-      </c>
-      <c r="N80">
-        <v>1.0952653999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="12:14">
-      <c r="L81">
-        <v>1.0509371999999999</v>
-      </c>
-      <c r="M81">
-        <v>1.0075932000000001</v>
-      </c>
-      <c r="N81">
-        <v>1.0951812999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="12:14">
-      <c r="L82">
-        <v>0.91476979999999997</v>
-      </c>
-      <c r="M82">
-        <v>0.87462459999999997</v>
-      </c>
-      <c r="N82">
-        <v>0.95580319999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="12:14">
-      <c r="L83">
-        <v>0.7499363</v>
-      </c>
-      <c r="M83">
-        <v>0.71369190000000005</v>
-      </c>
-      <c r="N83">
-        <v>0.78706569999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="12:14">
-      <c r="L84">
-        <v>0.62940050000000003</v>
-      </c>
-      <c r="M84">
-        <v>0.5958504</v>
-      </c>
-      <c r="N84">
-        <v>0.66385660000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="12:14">
-      <c r="L85">
-        <v>0.71080679999999996</v>
-      </c>
-      <c r="M85">
-        <v>0.67412090000000002</v>
-      </c>
-      <c r="N85">
-        <v>0.74845090000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="12:14">
-      <c r="L86">
-        <v>0.79391610000000001</v>
-      </c>
-      <c r="M86">
-        <v>0.75365539999999998</v>
-      </c>
-      <c r="N86">
-        <v>0.83520950000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>